--- a/MitoDispersalResults.xlsx
+++ b/MitoDispersalResults.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -460,13 +460,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>16229</v>
+        <v>14348</v>
       </c>
       <c r="C2" t="n">
-        <v>5442</v>
+        <v>4843</v>
       </c>
       <c r="D2" t="n">
-        <v>0.3353256516113131</v>
+        <v>0.3375383328686925</v>
       </c>
     </row>
     <row r="3">
@@ -474,13 +474,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>15015</v>
+        <v>11528</v>
       </c>
       <c r="C3" t="n">
-        <v>3786</v>
+        <v>4406</v>
       </c>
       <c r="D3" t="n">
-        <v>0.2521478521478521</v>
+        <v>0.3821998612074948</v>
       </c>
     </row>
     <row r="4">
@@ -488,13 +488,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>11228</v>
+        <v>13292</v>
       </c>
       <c r="C4" t="n">
-        <v>5139</v>
+        <v>7268</v>
       </c>
       <c r="D4" t="n">
-        <v>0.4576950480940506</v>
+        <v>0.5467950647005718</v>
       </c>
     </row>
     <row r="5">
@@ -502,13 +502,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>7401</v>
+        <v>8734</v>
       </c>
       <c r="C5" t="n">
-        <v>2391</v>
+        <v>3630</v>
       </c>
       <c r="D5" t="n">
-        <v>0.3230644507498986</v>
+        <v>0.4156171284634761</v>
       </c>
     </row>
     <row r="6">
@@ -516,13 +516,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>13667</v>
+        <v>7020</v>
       </c>
       <c r="C6" t="n">
-        <v>3593</v>
+        <v>3455</v>
       </c>
       <c r="D6" t="n">
-        <v>0.2628960269261725</v>
+        <v>0.4921652421652422</v>
       </c>
     </row>
     <row r="7">
@@ -530,27 +530,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>7348</v>
+        <v>4935</v>
       </c>
       <c r="C7" t="n">
-        <v>817</v>
+        <v>1719</v>
       </c>
       <c r="D7" t="n">
-        <v>0.1111867174741426</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="n">
-        <v>7</v>
-      </c>
-      <c r="B8" t="n">
-        <v>5709</v>
-      </c>
-      <c r="C8" t="n">
-        <v>461</v>
-      </c>
-      <c r="D8" t="n">
-        <v>0.08074969346645647</v>
+        <v>0.3483282674772036</v>
       </c>
     </row>
   </sheetData>

--- a/MitoDispersalResults.xlsx
+++ b/MitoDispersalResults.xlsx
@@ -460,13 +460,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>14348</v>
+        <v>53273</v>
       </c>
       <c r="C2" t="n">
-        <v>4843</v>
+        <v>13661</v>
       </c>
       <c r="D2" t="n">
-        <v>0.3375383328686925</v>
+        <v>0.2564338407823851</v>
       </c>
     </row>
     <row r="3">
@@ -474,13 +474,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>11528</v>
+        <v>48417</v>
       </c>
       <c r="C3" t="n">
-        <v>4406</v>
+        <v>13755</v>
       </c>
       <c r="D3" t="n">
-        <v>0.3821998612074948</v>
+        <v>0.2840944296424809</v>
       </c>
     </row>
     <row r="4">
@@ -488,13 +488,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>13292</v>
+        <v>13124</v>
       </c>
       <c r="C4" t="n">
-        <v>7268</v>
+        <v>2154</v>
       </c>
       <c r="D4" t="n">
-        <v>0.5467950647005718</v>
+        <v>0.1641267906126181</v>
       </c>
     </row>
     <row r="5">
@@ -502,13 +502,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>8734</v>
+        <v>19783</v>
       </c>
       <c r="C5" t="n">
-        <v>3630</v>
+        <v>4456</v>
       </c>
       <c r="D5" t="n">
-        <v>0.4156171284634761</v>
+        <v>0.2252438962745792</v>
       </c>
     </row>
     <row r="6">
@@ -516,13 +516,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>7020</v>
+        <v>21269</v>
       </c>
       <c r="C6" t="n">
-        <v>3455</v>
+        <v>5030</v>
       </c>
       <c r="D6" t="n">
-        <v>0.4921652421652422</v>
+        <v>0.2364944285109784</v>
       </c>
     </row>
     <row r="7">
@@ -530,13 +530,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>4935</v>
+        <v>53113</v>
       </c>
       <c r="C7" t="n">
-        <v>1719</v>
+        <v>9286</v>
       </c>
       <c r="D7" t="n">
-        <v>0.3483282674772036</v>
+        <v>0.1748347862105323</v>
       </c>
     </row>
   </sheetData>

--- a/MitoDispersalResults.xlsx
+++ b/MitoDispersalResults.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -460,13 +460,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>53273</v>
+        <v>17861</v>
       </c>
       <c r="C2" t="n">
-        <v>13661</v>
+        <v>3836</v>
       </c>
       <c r="D2" t="n">
-        <v>0.2564338407823851</v>
+        <v>0.2147696097642909</v>
       </c>
     </row>
     <row r="3">
@@ -474,69 +474,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>48417</v>
+        <v>14996</v>
       </c>
       <c r="C3" t="n">
-        <v>13755</v>
+        <v>3359</v>
       </c>
       <c r="D3" t="n">
-        <v>0.2840944296424809</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="n">
-        <v>3</v>
-      </c>
-      <c r="B4" t="n">
-        <v>13124</v>
-      </c>
-      <c r="C4" t="n">
-        <v>2154</v>
-      </c>
-      <c r="D4" t="n">
-        <v>0.1641267906126181</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="n">
-        <v>4</v>
-      </c>
-      <c r="B5" t="n">
-        <v>19783</v>
-      </c>
-      <c r="C5" t="n">
-        <v>4456</v>
-      </c>
-      <c r="D5" t="n">
-        <v>0.2252438962745792</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="n">
-        <v>5</v>
-      </c>
-      <c r="B6" t="n">
-        <v>21269</v>
-      </c>
-      <c r="C6" t="n">
-        <v>5030</v>
-      </c>
-      <c r="D6" t="n">
-        <v>0.2364944285109784</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="n">
-        <v>6</v>
-      </c>
-      <c r="B7" t="n">
-        <v>53113</v>
-      </c>
-      <c r="C7" t="n">
-        <v>9286</v>
-      </c>
-      <c r="D7" t="n">
-        <v>0.1748347862105323</v>
+        <v>0.2239930648172846</v>
       </c>
     </row>
   </sheetData>
